--- a/pred_ohlcv/54_21/2020-01-14 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 LBA ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-299180.9850664157</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-324189.5266664157</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-342968.0477664156</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-384555.0085664156</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-385139.4949664156</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-384383.6879664157</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-594831.7107664157</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-635803.3813664156</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-635782.3813664156</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-635761.3814664156</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-637074.1634664156</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-677512.4189664156</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-680263.0698664156</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-689544.3629664156</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-748196.2337205277</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-753196.2337205277</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-753196.2337205277</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-753196.2337205277</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-745011.3737205277</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-745011.3737205277</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-855005.9938205278</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1707263.321615086</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1706716.647815086</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1623900.089015086</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1685487.325815086</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1692640.278415086</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1696024.964115086</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1695363.086415086</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1705088.679515086</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1667083.076115086</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1668583.076115086</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1638985.571015086</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1638985.571015086</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1827608.571015086</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1889985.723115087</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-14 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 LBA ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-348878.6032664157</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-299180.9850664157</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-329482.8601664157</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-341749.4474664157</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-357452.2852664157</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-342968.0477664156</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-637000.0634664156</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-639265.4268664157</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-639286.4246664157</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-639246.3246664157</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-639273.0246664156</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-639247.1246664156</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-639247.1246664156</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-671522.7906664156</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-674196.9232664156</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-674422.6687664156</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-674422.6687664156</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-677894.0387664156</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-699085.3629664156</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-753196.2337205277</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-745011.3737205277</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-745011.3737205277</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-855005.9938205278</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-977351.7098205278</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-977351.7098205278</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-977330.7098205278</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-999586.4756205279</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-998989.2571205279</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-998989.2571205279</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-998989.2571205279</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-990839.8521205279</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-906404.5821150863</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-872564.8389150862</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-876361.2958150862</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-908668.2335150862</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-908076.8020150863</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-936654.9027150862</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-987508.8441150862</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-987508.8441150862</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1143795.895015086</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1143795.895015086</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1145465.080615086</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1145465.080615086</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1200659.502515086</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1200659.502515086</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1707263.321615086</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1706716.647815086</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1623900.089015086</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1623877.089015086</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1685487.325815086</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-1692640.278415086</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1696024.964115086</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1691863.552015086</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1694136.926415086</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1695363.086415086</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1705088.679515086</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1667083.076115086</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1668583.076115086</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1638985.571015086</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1638985.571015086</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1827608.571015086</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1889985.723115087</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
